--- a/www/ig/fhir/annuaire/StructureDefinition-as-ext-healthcareservice-authorization.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-ext-healthcareservice-authorization.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot-3</t>
+    <t>1.0.0-ballot-4</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-19T15:19:17+00:00</t>
+    <t>2024-04-02T14:41:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>ANS</t>
+    <t>Agence du Numérique en Santé (ANS) - 2-10 Rue d'Oradour-sur-Glane, 75015 Paris</t>
   </si>
   <si>
     <t>Contact</t>
@@ -597,7 +597,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/TRE_R301-SourceInformationInstallation/FHIR/TRE-R301-SourceInformationInstallation</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/annuaire/ValueSet/VS-TRE-R301-SourceInformationInstallation</t>
   </si>
   <si>
     <t>base64Binary
@@ -948,7 +948,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="109.89453125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="92.07421875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/www/ig/fhir/annuaire/StructureDefinition-as-ext-healthcareservice-authorization.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-ext-healthcareservice-authorization.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot-4</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-02T14:41:29+00:00</t>
+    <t>2024-04-10T12:30:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Agence du Numérique en Santé (ANS) - 2-10 Rue d'Oradour-sur-Glane, 75015 Paris (https://esante.gouv.fr, monserviceclient.annuaire@esante.gouv.fr)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/www/ig/fhir/annuaire/StructureDefinition-as-ext-healthcareservice-authorization.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-ext-healthcareservice-authorization.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T12:30:53+00:00</t>
+    <t>2024-04-25T11:46:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
